--- a/data/trans_dic/CONS_OTR-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_OTR-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>7,96%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 11,15</t>
+          <t>15,19; 21,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,01</t>
+          <t>0,22; 2,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,22; 20,33</t>
+          <t>5,82; 10,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,97; 11,04</t>
+          <t>11,13; 16,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,66</t>
+          <t>4,96; 10,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,31; 14,71</t>
+          <t>5,9; 10,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,26</t>
+          <t>13,89; 17,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,45</t>
+          <t>2,5; 5,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,33; 16,67</t>
+          <t>6,32; 9,88</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>20,49%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16,15%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6,82%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7,59%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,41%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>20,3%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,37%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,61%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>16,57%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>6,69%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 10,9</t>
+          <t>16,46; 24,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,78</t>
+          <t>0,28; 2,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,85; 23,77</t>
+          <t>3,55; 8,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 10,22</t>
+          <t>13,55; 19,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 10,48</t>
+          <t>4,46; 10,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,1; 19,19</t>
+          <t>5,36; 10,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 9,63</t>
+          <t>15,87; 20,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,67</t>
+          <t>2,4; 5,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,06; 20,39</t>
+          <t>5,09; 8,88</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>12,37%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,88; 16,3</t>
+          <t>20,16; 26,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,98</t>
+          <t>0,17; 3,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,65; 26,06</t>
+          <t>8,43; 15,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,05; 19,5</t>
+          <t>15,57; 24,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,95; 18,92</t>
+          <t>7,33; 22,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,91; 23,47</t>
+          <t>8,64; 22,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,11; 15,8</t>
+          <t>19,81; 25,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 7,52</t>
+          <t>0,97; 6,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,06; 24,54</t>
+          <t>9,61; 15,53</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>9,91%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,93; 14,16</t>
+          <t>18,3; 23,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,73</t>
+          <t>1,33; 3,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,65; 23,69</t>
+          <t>8,19; 13,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,9</t>
+          <t>16,01; 20,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,97</t>
+          <t>1,39; 6,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,61; 21,43</t>
+          <t>6,89; 12,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,58; 11,99</t>
+          <t>17,78; 21,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,02</t>
+          <t>1,95; 4,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,24; 21,49</t>
+          <t>8,19; 11,96</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>10,27%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 11,26</t>
+          <t>14,87; 22,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,99</t>
+          <t>0,7; 4,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,92; 22,61</t>
+          <t>4,38; 10,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,49; 17,76</t>
+          <t>20,21; 26,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 13,08</t>
+          <t>5,07; 12,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,57; 25,77</t>
+          <t>8,93; 17,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,38; 13,76</t>
+          <t>18,99; 24,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,88; 9,04</t>
+          <t>4,4; 9,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,95; 23,42</t>
+          <t>7,69; 13,29</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1192,37 +1193,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>13,44%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,24</t>
+          <t>4,24; 11,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>0; 2,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,08; 10,26</t>
+          <t>0,0; 34,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,04; 38,14</t>
+          <t>19,08; 25,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,87; 10,18</t>
+          <t>7,06; 11,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,94; 22,98</t>
+          <t>2,55; 43,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,42; 29,03</t>
+          <t>15,64; 20,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,26; 7,74</t>
+          <t>5,25; 8,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,1; 18,2</t>
+          <t>4,6; 32,32</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,64; 11,27</t>
+          <t>18,24; 21,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,41</t>
+          <t>0,97; 2,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,18; 20,64</t>
+          <t>7,54; 10,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,22; 11,13</t>
+          <t>17,55; 19,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,75; 8,67</t>
+          <t>5,15; 8,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,18; 19,47</t>
+          <t>8,16; 11,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,8; 10,64</t>
+          <t>18,23; 20,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,46; 5,55</t>
+          <t>3,5; 5,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,99; 19,59</t>
+          <t>8,19; 10,23</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de otros medicamentos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>26387</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2970</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22913</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19041</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>21428</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22661</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>45427</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24398</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>45574</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>22142; 30745</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>806; 7654</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17208; 31709</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15909; 23033</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14838; 30622</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16328; 30379</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>40115; 51532</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16665; 34853</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>36193; 56549</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16629</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3160</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11011</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17622</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17726</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17606</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>34251</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20887</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>28617</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13363; 19918</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>902; 7555</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6949; 16656</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14782; 21076</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11602; 26820</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>12442; 24877</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>30191; 39032</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14029; 30044</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21778; 37998</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>38282</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7027</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20989</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12440</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12693</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11621</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>50722</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19720</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>32610</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33027; 43505</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>824; 18250</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15256; 27663</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9830; 15424</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7148; 21523</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7151; 18622</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>44958; 56895</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5586; 39845</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25339; 40955</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>35681</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12790</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33196</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>32647</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25853</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>28652</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>68328</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38644</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>61848</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>31130; 40619</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7124; 20532</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>25249; 42346</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>28368; 37124</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8821; 43322</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21783; 39048</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>61752; 75522</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22926; 53398</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>51139; 74685</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13868</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4343</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11026</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>31077</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>37093</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>20406</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>44945</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>41435</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>31433</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11429; 17310</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1486; 10257</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6611; 16172</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26870; 35641</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>21496; 54454</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13846; 27901</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>39847; 50748</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27998; 62555</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23537; 40666</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3264</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>26466</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>44236</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1842</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>29731</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>44236</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2793</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1918; 5269</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4043</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3269</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>22564; 30543</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>34610; 56542</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>292; 4943</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>25572; 34185</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>34509; 56061</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>956; 6716</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1607</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>134111</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>30290</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>100087</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>139293</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>159030</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>102787</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>273404</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>189320</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>202874</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>124616; 143591</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>20198; 41996</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>86021; 116765</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>130523; 148415</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>113660; 188853</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>87597; 118918</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>260111; 287513</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>149961; 222503</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>181449; 226488</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_OTR-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_OTR-Clase-trans_dic.xlsx
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 4043</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_OTR-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_OTR-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos</t>
+          <t>Consumo de otros medicamentos (tasa de respuesta: 99,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos</t>
+          <t>Consumo de otros medicamentos (tasa de respuesta: 99,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_OTR-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_OTR-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,19; 21,09</t>
+          <t>13,63; 18,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,09</t>
+          <t>0,2; 2,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,13; 16,12</t>
+          <t>10,81; 15,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 10,24</t>
+          <t>5,01; 10,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,89; 17,85</t>
+          <t>12,78; 16,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,24</t>
+          <t>2,62; 5,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,46; 24,54</t>
+          <t>15,45; 22,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,33</t>
+          <t>0,27; 2,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,55; 19,32</t>
+          <t>13,08; 18,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 10,31</t>
+          <t>4,58; 10,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,87; 20,51</t>
+          <t>14,95; 19,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,14</t>
+          <t>2,47; 5,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,16; 26,55</t>
+          <t>18,13; 23,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,84</t>
+          <t>0,13; 3,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,57; 24,43</t>
+          <t>17,56; 26,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 22,06</t>
+          <t>7,88; 21,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,81; 25,06</t>
+          <t>18,65; 23,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 6,95</t>
+          <t>0,91; 6,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 23,88</t>
+          <t>17,59; 22,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,83</t>
+          <t>1,39; 3,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,01; 20,95</t>
+          <t>15,69; 20,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 6,8</t>
+          <t>1,53; 6,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,78; 21,75</t>
+          <t>17,31; 20,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,55</t>
+          <t>1,85; 4,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,87; 22,52</t>
+          <t>12,93; 20,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,83</t>
+          <t>0,71; 4,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,21; 26,81</t>
+          <t>18,39; 24,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 12,84</t>
+          <t>4,81; 12,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,99; 24,19</t>
+          <t>17,06; 21,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,83</t>
+          <t>4,31; 9,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,64</t>
+          <t>2,9; 8,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,08; 25,82</t>
+          <t>18,91; 25,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,06; 11,54</t>
+          <t>7,11; 11,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,64; 20,9</t>
+          <t>14,29; 19,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,54</t>
+          <t>5,35; 8,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,24; 21,02</t>
+          <t>16,36; 18,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,02</t>
+          <t>0,93; 2,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,55; 19,96</t>
+          <t>16,78; 19,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,15; 8,56</t>
+          <t>5,12; 8,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,23; 20,15</t>
+          <t>16,98; 18,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,19</t>
+          <t>3,43; 5,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26387</t>
+          <t>26031</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19041</t>
+          <t>21948</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45427</t>
+          <t>47979</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22142; 30745</t>
+          <t>22188; 30053</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>806; 7654</t>
+          <t>749; 7778</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15909; 23033</t>
+          <t>18214; 25855</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14838; 30622</t>
+          <t>14964; 30943</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40115; 51532</t>
+          <t>42333; 54186</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16665; 34853</t>
+          <t>17412; 34434</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16629</t>
+          <t>17042</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17622</t>
+          <t>19284</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34251</t>
+          <t>36326</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13363; 19918</t>
+          <t>13971; 20662</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>902; 7555</t>
+          <t>880; 8324</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14782; 21076</t>
+          <t>16042; 22984</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11602; 26820</t>
+          <t>11901; 26118</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30191; 39032</t>
+          <t>31859; 41524</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14029; 30044</t>
+          <t>14409; 30900</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38282</t>
+          <t>31594</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12440</t>
+          <t>13396</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50722</t>
+          <t>44990</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>33027; 43505</t>
+          <t>27898; 35920</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>824; 18250</t>
+          <t>602; 17968</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9830; 15424</t>
+          <t>10822; 16338</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7148; 21523</t>
+          <t>7684; 21226</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44958; 56895</t>
+          <t>40192; 50437</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5586; 39845</t>
+          <t>5232; 39498</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>35681</t>
+          <t>34005</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>32647</t>
+          <t>32791</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>68328</t>
+          <t>66796</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>31130; 40619</t>
+          <t>29856; 38683</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7124; 20532</t>
+          <t>7474; 19922</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28368; 37124</t>
+          <t>28592; 37395</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8821; 43322</t>
+          <t>9772; 43699</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>61752; 75522</t>
+          <t>60929; 73548</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22926; 53398</t>
+          <t>21716; 52728</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13868</t>
+          <t>12237</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31077</t>
+          <t>26573</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>44945</t>
+          <t>38810</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11429; 17310</t>
+          <t>9628; 14998</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1486; 10257</t>
+          <t>1500; 10216</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26870; 35641</t>
+          <t>23060; 30640</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>21496; 54454</t>
+          <t>20378; 53451</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>39847; 50748</t>
+          <t>34106; 43803</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>27998; 62555</t>
+          <t>27429; 60356</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26466</t>
+          <t>26965</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>29731</t>
+          <t>29792</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1918; 5269</t>
+          <t>1612; 4637</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22564; 30543</t>
+          <t>23184; 31031</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>34610; 56542</t>
+          <t>34829; 56498</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>25572; 34185</t>
+          <t>25473; 34320</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>34509; 56061</t>
+          <t>35120; 57652</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>134111</t>
+          <t>123736</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>139293</t>
+          <t>140957</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>273404</t>
+          <t>264693</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>124616; 143591</t>
+          <t>115658; 132002</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>20198; 41996</t>
+          <t>19294; 41876</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>130523; 148415</t>
+          <t>131420; 149886</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>113660; 188853</t>
+          <t>113014; 190890</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>260111; 287513</t>
+          <t>252974; 277332</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>149961; 222503</t>
+          <t>146995; 221787</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_OTR-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_OTR-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>15,99%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,81%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,75%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>6,98%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8,19%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>13,02%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,17%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,19%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>14,48%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,67%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>7,96%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,23; 2,19</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5,82; 10,73</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>13,63; 18,46</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 2,12</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,82; 10,73</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>4,89; 10,04</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 10,98</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>10,81; 15,34</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>5,01; 10,35</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 10,98</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>2,57; 5,06</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6,32; 9,88</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>12,78; 16,35</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 5,17</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>6,32; 9,88</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>18,85%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,62%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7,59%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>15,72%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,82%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,59%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>17,05%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>6,69%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,25; 2,62</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 8,51</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>15,45; 22,85</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 2,57</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,55; 8,51</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>4,54; 9,69</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5,36; 10,72</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>13,08; 18,74</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>4,58; 10,04</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>5,36; 10,72</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>2,42; 5,15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 8,88</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>14,95; 19,49</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>2,47; 5,29</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>5,09; 8,88</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11,6%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>20,53%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,48%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,6%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>12,76%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14,03%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>21,74%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>13,01%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>14,03%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12,37%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>20,88%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>12,37%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,4; 5,13</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8,43; 15,29</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>18,13; 23,34</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 3,78</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>8,43; 15,29</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>7,48; 21,57</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8,64; 22,49</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>17,56; 26,52</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>7,88; 21,76</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>8,64; 22,49</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>3,84; 9,12</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9,61; 15,53</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>18,65; 23,4</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 6,89</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>9,61; 15,53</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10,76%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>20,04%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,39%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,76%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9,07%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>18,0%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,06%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9,07%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>18,98%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,3%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>9,91%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,37; 3,64</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8,19; 13,73</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>17,59; 22,79</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 3,72</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>8,19; 13,73</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>4,25; 7,81</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 12,36</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>15,69; 20,53</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 6,86</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>6,89; 12,36</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>3,01; 5,1</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8,19; 11,96</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>17,31; 20,9</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,85; 4,5</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>8,19; 11,96</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>16,44%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,05%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,31%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>21,19%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,75%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>13,16%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>6,31%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,27%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>19,42%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,51%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>10,27%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,64; 4,41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,38; 10,72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>12,93; 20,14</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 4,81</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,38; 10,72</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>6,96; 11,64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8,93; 17,99</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>18,39; 24,43</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>4,81; 12,61</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>8,93; 17,99</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>4,93; 8,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 13,29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>17,06; 21,92</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,31; 9,49</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>7,69; 13,29</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10,18%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>5,08%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,18%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>9,08%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>16,11%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>21,99%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>9,03%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>16,11%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>6,93%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13,44%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>16,72%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,74%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>13,44%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 34,97</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>2,9; 8,34</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 34,97</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>7,1; 11,46</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 43,23</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>18,91; 25,31</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>7,11; 11,53</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,55; 43,23</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>5,47; 9,05</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4,6; 32,32</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>14,29; 19,26</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>5,35; 8,78</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>4,6; 32,32</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8,77%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>17,5%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,46%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>8,77%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>7,89%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9,57%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>18,0%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>7,21%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>9,57%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9,16%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>17,77%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>4,41%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,2; 2,22</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7,54; 10,24</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>16,36; 18,67</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 2,01</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>7,54; 10,24</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>6,99; 9,03</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8,16; 11,07</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>16,78; 19,14</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>5,12; 8,65</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>8,16; 11,07</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>4,28; 5,52</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8,19; 10,23</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>16,98; 18,61</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>3,43; 5,17</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>8,19; 10,23</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>154</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>123</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>277</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>86</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>3338</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22913</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>26031</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2970</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>22913</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>22871</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>22661</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>21948</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>21428</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>22661</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>26209</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>45574</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>47979</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>24398</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>45574</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>897; 8643</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17208; 31709</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>22188; 30053</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>749; 7778</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>17208; 31709</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>16024; 32892</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16328; 30379</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>18214; 25855</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14964; 30943</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>16328; 30379</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>18595; 36553</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>36193; 56549</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>42333; 54186</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>17412; 34434</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>36193; 56549</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>96</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>116</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>212</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3391</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11011</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>17042</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3160</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11011</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>18894</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17606</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>19284</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>17726</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>17606</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>22285</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>28617</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>36326</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>20887</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>28617</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>852; 9007</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6949; 16656</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>13971; 20662</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>880; 8324</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>6949; 16656</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>13029; 27791</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12442; 24877</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>16042; 22984</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>11901; 26118</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>12442; 24877</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>15287; 32535</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>21778; 37998</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>31859; 41524</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>14409; 30900</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>21778; 37998</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>205</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>79</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>284</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>66</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7620</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20989</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>31594</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7027</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>20989</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>14229</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11621</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>13396</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>12693</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>11621</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>21849</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32610</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>44990</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>19720</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>32610</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3645; 13362</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15256; 27663</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>27898; 35920</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>602; 17968</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>15256; 27663</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>8343; 24046</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7151; 18622</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>10822; 16338</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7684; 21226</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7151; 18622</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>14273; 33917</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25339; 40955</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>40192; 50437</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5232; 39498</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>25339; 40955</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>210</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>197</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>407</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>118</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>14201</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>33196</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>34005</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>12790</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>33196</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>28476</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28652</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>32791</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>25853</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>28652</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>42678</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>61848</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>66796</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>38644</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>61848</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>8369; 22197</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>25249; 42346</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>29856; 38683</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7474; 19922</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>25249; 42346</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>20813; 38260</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21783; 39048</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>28592; 37395</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>9772; 43699</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>21783; 39048</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>33059; 56079</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>51139; 74685</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>60929; 73548</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>21716; 52728</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>51139; 74685</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>83</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>169</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>252</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>59</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4665</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11026</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>12237</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>4343</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>11026</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>37162</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20406</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>26573</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>37093</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>20406</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>41827</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>31433</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>38810</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>41435</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>31433</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>1631; 11206</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6611; 16172</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>9628; 14998</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1500; 10216</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>6611; 16172</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>28413; 47503</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13846; 27901</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>23060; 30640</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>20378; 53451</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>13846; 27901</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>32624; 53750</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>23537; 40666</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>34106; 43803</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>27429; 60356</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>23537; 40666</t>
         </is>
       </c>
     </row>
@@ -2364,47 +2364,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>158</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>175</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>2826</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>951</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>49655</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1842</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>26965</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>44236</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>1842</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>49655</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2793</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>29792</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>44236</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>2793</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3269</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>1612; 4637</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>0; 3269</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>38816; 62696</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>292; 4943</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>23184; 31031</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>34829; 56498</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>292; 4943</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>39208; 64828</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>956; 6716</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>25473; 34320</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>35120; 57652</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>956; 6716</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>765</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>842</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>1607</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>287</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>390</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>33215</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>100087</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>123736</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>30290</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>100087</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>171287</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>102787</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>140957</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>159030</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>102787</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>204501</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>202874</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>264693</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>189320</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>202874</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>24321; 45239</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>86021; 116765</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>115658; 132002</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>19294; 41876</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>86021; 116765</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>151681; 195971</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>87597; 118918</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>131420; 149886</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>113014; 190890</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>87597; 118918</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>180183; 232153</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>181449; 226488</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>252974; 277332</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>146995; 221787</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>181449; 226488</t>
         </is>
       </c>
     </row>
